--- a/demo_data/olympics.xlsx
+++ b/demo_data/olympics.xlsx
@@ -25,11 +25,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Men</t>
+    <t>Men_score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Women</t>
+    <t>Women_score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,7 +377,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
